--- a/StepResponse.xlsx
+++ b/StepResponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2844d6b5392e8e6b/Documents/Mines/4th Year/EENG 350 SEED/Demo 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DBEBB4C0-0C52-4BD4-8FD3-295EBDBDD4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B7C7D712-B67B-49ED-BFB2-59E6F086808E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{DBEBB4C0-0C52-4BD4-8FD3-295EBDBDD4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDD4EE98-6F3A-48F5-AE08-A86B129DDED3}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{B1C8DC03-7113-4FFB-B8DB-0948E52A8A7D}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE7575A-F5BF-431A-9A85-3D93EE202DF8}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -393,395 +393,780 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="B2">
-        <v>-0.01</v>
+        <v>2.99</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="B3">
-        <v>-0.01</v>
+        <v>3.51</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>1.1499999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="B4">
-        <v>-0.01</v>
+        <v>2.72</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B5">
-        <v>-0.01</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>1.25</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B6">
-        <v>-0.01</v>
+        <v>3.78</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="B7">
-        <v>-0.01</v>
+        <v>4.5</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="B8">
-        <v>-0.01</v>
+        <v>5.28</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="B9">
-        <v>-0.01</v>
+        <v>6.21</v>
       </c>
       <c r="C9">
-        <v>0.01</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="B10">
-        <v>-0.01</v>
+        <v>6.25</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="B11">
-        <v>-0.01</v>
+        <v>6.42</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="B12">
-        <v>-0.01</v>
+        <v>6.5</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="B13">
-        <v>-0.01</v>
+        <v>6.54</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="B14">
-        <v>-0.01</v>
+        <v>6.54</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="B15">
-        <v>-0.01</v>
+        <v>6.29</v>
       </c>
       <c r="C15">
-        <v>0.01</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="B16">
-        <v>-0.01</v>
+        <v>6.5</v>
       </c>
       <c r="C16">
-        <v>0.01</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="B17">
-        <v>-0.01</v>
+        <v>6.44</v>
       </c>
       <c r="C17">
-        <v>0.01</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="B18">
-        <v>-0.01</v>
+        <v>3.72</v>
       </c>
       <c r="C18">
-        <v>0.01</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="B19">
-        <v>-0.01</v>
+        <v>8.39</v>
       </c>
       <c r="C19">
-        <v>0.01</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B20">
-        <v>16.84</v>
+        <v>6.37</v>
       </c>
       <c r="C20">
-        <v>17.010000000000002</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
-        <v>2.0499999999999998</v>
+        <v>1.52</v>
       </c>
       <c r="B21">
-        <v>16.84</v>
+        <v>4.79</v>
       </c>
       <c r="C21">
-        <v>17.010000000000002</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="B22">
-        <v>16.84</v>
+        <v>6.33</v>
       </c>
       <c r="C22">
-        <v>17.010000000000002</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
-        <v>2.15</v>
+        <v>1.58</v>
       </c>
       <c r="B23">
-        <v>16.84</v>
+        <v>6.29</v>
       </c>
       <c r="C23">
-        <v>17.010000000000002</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="B24">
-        <v>16.84</v>
+        <v>6.33</v>
       </c>
       <c r="C24">
-        <v>17.010000000000002</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="B25">
-        <v>16.84</v>
+        <v>8.39</v>
       </c>
       <c r="C25">
-        <v>17.010000000000002</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26">
-        <v>2.2999999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="B26">
-        <v>16.84</v>
+        <v>6.33</v>
       </c>
       <c r="C26">
-        <v>17.010000000000002</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="B27">
-        <v>16.84</v>
+        <v>8.39</v>
       </c>
       <c r="C27">
-        <v>17.010000000000002</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="B28">
-        <v>16.84</v>
+        <v>6.33</v>
       </c>
       <c r="C28">
-        <v>17.010000000000002</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29">
-        <v>2.4500000000000002</v>
+        <v>1.73</v>
       </c>
       <c r="B29">
-        <v>16.84</v>
+        <v>6.33</v>
       </c>
       <c r="C29">
-        <v>17.010000000000002</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="B30">
-        <v>16.84</v>
+        <v>4.18</v>
       </c>
       <c r="C30">
-        <v>17.010000000000002</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31">
-        <v>2.5499999999999998</v>
+        <v>1.77</v>
       </c>
       <c r="B31">
-        <v>16.84</v>
+        <v>6.29</v>
       </c>
       <c r="C31">
-        <v>17.010000000000002</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="B32">
-        <v>16.84</v>
+        <v>4.79</v>
       </c>
       <c r="C32">
-        <v>17.010000000000002</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="B33">
-        <v>16.84</v>
+        <v>5.68</v>
       </c>
       <c r="C33">
-        <v>17.010000000000002</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="B34">
-        <v>16.84</v>
+        <v>6.46</v>
       </c>
       <c r="C34">
-        <v>17.010000000000002</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="B35">
-        <v>16.84</v>
+        <v>12.75</v>
       </c>
       <c r="C35">
-        <v>17.010000000000002</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36">
+        <v>1.9</v>
+      </c>
+      <c r="B36">
+        <v>5.77</v>
+      </c>
+      <c r="C36">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>1.92</v>
+      </c>
+      <c r="B37">
+        <v>5.28</v>
+      </c>
+      <c r="C37">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>1.95</v>
+      </c>
+      <c r="B38">
+        <v>12.67</v>
+      </c>
+      <c r="C38">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>1.98</v>
+      </c>
+      <c r="B39">
+        <v>6.25</v>
+      </c>
+      <c r="C39">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>12.75</v>
+      </c>
+      <c r="C40">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="B41">
+        <v>6.29</v>
+      </c>
+      <c r="C41">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B42">
+        <v>12.43</v>
+      </c>
+      <c r="C42">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <v>2.08</v>
+      </c>
+      <c r="B43">
+        <v>6.25</v>
+      </c>
+      <c r="C43">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <v>2.1</v>
+      </c>
+      <c r="B44">
+        <v>6.37</v>
+      </c>
+      <c r="C44">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <v>2.13</v>
+      </c>
+      <c r="B45">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C45">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A46">
+        <v>2.15</v>
+      </c>
+      <c r="B46">
+        <v>6.25</v>
+      </c>
+      <c r="C46">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B47">
+        <v>12.35</v>
+      </c>
+      <c r="C47">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <v>2.23</v>
+      </c>
+      <c r="B48">
+        <v>5.64</v>
+      </c>
+      <c r="C48">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A49">
+        <v>2.25</v>
+      </c>
+      <c r="B49">
+        <v>12.51</v>
+      </c>
+      <c r="C49">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A50">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="B50">
+        <v>6.33</v>
+      </c>
+      <c r="C50">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A51">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B51">
+        <v>12.35</v>
+      </c>
+      <c r="C51">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A52">
+        <v>2.33</v>
+      </c>
+      <c r="B52">
+        <v>12.59</v>
+      </c>
+      <c r="C52">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <v>2.35</v>
+      </c>
+      <c r="B53">
+        <v>6.33</v>
+      </c>
+      <c r="C53">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <v>2.38</v>
+      </c>
+      <c r="B54">
+        <v>6.46</v>
+      </c>
+      <c r="C54">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <v>2.4</v>
+      </c>
+      <c r="B55">
+        <v>12.83</v>
+      </c>
+      <c r="C55">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="B56">
+        <v>6.29</v>
+      </c>
+      <c r="C56">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A57">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B57">
+        <v>6.33</v>
+      </c>
+      <c r="C57">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A58">
+        <v>2.48</v>
+      </c>
+      <c r="B58">
+        <v>6.29</v>
+      </c>
+      <c r="C58">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A59">
+        <v>2.5</v>
+      </c>
+      <c r="B59">
+        <v>12.51</v>
+      </c>
+      <c r="C59">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="B60">
+        <v>12.75</v>
+      </c>
+      <c r="C60">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A61">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B61">
+        <v>6.37</v>
+      </c>
+      <c r="C61">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A62">
+        <v>2.58</v>
+      </c>
+      <c r="B62">
+        <v>5.28</v>
+      </c>
+      <c r="C62">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A63">
+        <v>2.6</v>
+      </c>
+      <c r="B63">
+        <v>6.42</v>
+      </c>
+      <c r="C63">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A64">
+        <v>2.63</v>
+      </c>
+      <c r="B64">
+        <v>6.29</v>
+      </c>
+      <c r="C64">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <v>2.65</v>
+      </c>
+      <c r="B65">
+        <v>6.21</v>
+      </c>
+      <c r="C65">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A66">
+        <v>2.68</v>
+      </c>
+      <c r="B66">
+        <v>6.25</v>
+      </c>
+      <c r="C66">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A67">
+        <v>2.7</v>
+      </c>
+      <c r="B67">
+        <v>6.68</v>
+      </c>
+      <c r="C67">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A68">
+        <v>2.73</v>
+      </c>
+      <c r="B68">
+        <v>6.21</v>
+      </c>
+      <c r="C68">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A69">
+        <v>2.75</v>
+      </c>
+      <c r="B69">
+        <v>6.25</v>
+      </c>
+      <c r="C69">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <v>2.78</v>
+      </c>
+      <c r="B70">
+        <v>6.33</v>
+      </c>
+      <c r="C70">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A71">
         <v>2.8</v>
       </c>
-      <c r="B36">
-        <v>16.84</v>
-      </c>
-      <c r="C36">
-        <v>17.010000000000002</v>
+      <c r="B71">
+        <v>12.59</v>
+      </c>
+      <c r="C71">
+        <v>12.59</v>
       </c>
     </row>
   </sheetData>

--- a/StepResponse.xlsx
+++ b/StepResponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2844d6b5392e8e6b/Documents/Mines/4th Year/EENG 350 SEED/Demo 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{DBEBB4C0-0C52-4BD4-8FD3-295EBDBDD4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDD4EE98-6F3A-48F5-AE08-A86B129DDED3}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{DBEBB4C0-0C52-4BD4-8FD3-295EBDBDD4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5AFF9745-7ED6-4FB3-8638-737905B31EFD}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{B1C8DC03-7113-4FFB-B8DB-0948E52A8A7D}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -396,777 +396,777 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.2200000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="B4">
-        <v>2.72</v>
+        <v>0.66</v>
       </c>
       <c r="C4">
-        <v>3.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="B5">
-        <v>4.8099999999999996</v>
+        <v>0.66</v>
       </c>
       <c r="C5">
-        <v>3.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>1.1200000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="B6">
-        <v>3.78</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6">
-        <v>3.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>1.1499999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="B7">
-        <v>4.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7">
-        <v>4.46</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="B8">
-        <v>5.28</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>5.28</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="B9">
-        <v>6.21</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C9">
-        <v>6.21</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="B10">
-        <v>6.25</v>
+        <v>1.61</v>
       </c>
       <c r="C10">
-        <v>6.29</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="B11">
-        <v>6.42</v>
+        <v>5.67</v>
       </c>
       <c r="C11">
-        <v>6.42</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="B12">
-        <v>6.5</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C12">
-        <v>6.29</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="B13">
-        <v>6.54</v>
+        <v>4.42</v>
       </c>
       <c r="C13">
-        <v>6.37</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="B14">
-        <v>6.54</v>
+        <v>2.23</v>
       </c>
       <c r="C14">
-        <v>8.25</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="B15">
-        <v>6.29</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C15">
-        <v>6.29</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="B16">
-        <v>6.5</v>
+        <v>4.46</v>
       </c>
       <c r="C16">
-        <v>6.33</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="B17">
-        <v>6.44</v>
+        <v>2.08</v>
       </c>
       <c r="C17">
-        <v>8.18</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="B18">
-        <v>3.72</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C18">
-        <v>7.44</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="B19">
-        <v>8.39</v>
+        <v>4.08</v>
       </c>
       <c r="C19">
-        <v>6.37</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="B20">
-        <v>6.37</v>
+        <v>1.85</v>
       </c>
       <c r="C20">
-        <v>6.37</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="B21">
-        <v>4.79</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C21">
-        <v>4.79</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="B22">
-        <v>6.33</v>
+        <v>2.09</v>
       </c>
       <c r="C22">
-        <v>6.29</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="B23">
-        <v>6.29</v>
+        <v>3.71</v>
       </c>
       <c r="C23">
-        <v>6.29</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="B24">
         <v>6.33</v>
       </c>
       <c r="C24">
-        <v>6.46</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>1.63</v>
+        <v>1.05</v>
       </c>
       <c r="B25">
-        <v>8.39</v>
+        <v>2.23</v>
       </c>
       <c r="C25">
-        <v>6.37</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="B26">
-        <v>6.33</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C26">
-        <v>12.59</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="B27">
-        <v>8.39</v>
+        <v>2.25</v>
       </c>
       <c r="C27">
-        <v>6.57</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28">
-        <v>1.7</v>
+        <v>1.06</v>
       </c>
       <c r="B28">
-        <v>6.33</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C28">
-        <v>6.25</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="B29">
-        <v>6.33</v>
+        <v>6.68</v>
       </c>
       <c r="C29">
-        <v>6.37</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30">
-        <v>1.75</v>
+        <v>1.06</v>
       </c>
       <c r="B30">
-        <v>4.18</v>
+        <v>4.46</v>
       </c>
       <c r="C30">
-        <v>4.18</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31">
-        <v>1.77</v>
+        <v>1.06</v>
       </c>
       <c r="B31">
-        <v>6.29</v>
+        <v>2.23</v>
       </c>
       <c r="C31">
-        <v>6.29</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32">
-        <v>1.8</v>
+        <v>1.06</v>
       </c>
       <c r="B32">
-        <v>4.79</v>
+        <v>4.51</v>
       </c>
       <c r="C32">
-        <v>4.79</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33">
-        <v>1.83</v>
+        <v>1.07</v>
       </c>
       <c r="B33">
-        <v>5.68</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="C33">
-        <v>5.67</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="B34">
-        <v>6.46</v>
+        <v>2.25</v>
       </c>
       <c r="C34">
-        <v>6.46</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35">
-        <v>1.88</v>
+        <v>1.07</v>
       </c>
       <c r="B35">
-        <v>12.75</v>
+        <v>4.46</v>
       </c>
       <c r="C35">
-        <v>6.46</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36">
-        <v>1.9</v>
+        <v>1.07</v>
       </c>
       <c r="B36">
-        <v>5.77</v>
+        <v>2.23</v>
       </c>
       <c r="C36">
-        <v>5.81</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37">
-        <v>1.92</v>
+        <v>1.08</v>
       </c>
       <c r="B37">
-        <v>5.28</v>
+        <v>4.49</v>
       </c>
       <c r="C37">
-        <v>5.31</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38">
-        <v>1.95</v>
+        <v>1.08</v>
       </c>
       <c r="B38">
-        <v>12.67</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="C38">
-        <v>6.37</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39">
-        <v>1.98</v>
+        <v>1.08</v>
       </c>
       <c r="B39">
-        <v>6.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C39">
-        <v>6.29</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="B40">
-        <v>12.75</v>
+        <v>4.46</v>
       </c>
       <c r="C40">
-        <v>6.33</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41">
-        <v>2.0299999999999998</v>
+        <v>1.08</v>
       </c>
       <c r="B41">
-        <v>6.29</v>
+        <v>2.25</v>
       </c>
       <c r="C41">
-        <v>6.29</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42">
-        <v>2.0499999999999998</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B42">
-        <v>12.43</v>
+        <v>9.01</v>
       </c>
       <c r="C42">
-        <v>12.59</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43">
-        <v>2.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B43">
-        <v>6.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C43">
-        <v>6.29</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44">
-        <v>2.1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B44">
-        <v>6.37</v>
+        <v>4.42</v>
       </c>
       <c r="C44">
-        <v>12.59</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45">
-        <v>2.13</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B45">
-        <v>4.8099999999999996</v>
+        <v>8.92</v>
       </c>
       <c r="C45">
-        <v>4.84</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46">
-        <v>2.15</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B46">
-        <v>6.25</v>
+        <v>4.38</v>
       </c>
       <c r="C46">
-        <v>7.22</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B47">
-        <v>12.35</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C47">
-        <v>6.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B48">
+        <v>4.45</v>
+      </c>
+      <c r="C48">
         <v>2.23</v>
-      </c>
-      <c r="B48">
-        <v>5.64</v>
-      </c>
-      <c r="C48">
-        <v>5.64</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49">
-        <v>2.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B49">
-        <v>12.51</v>
+        <v>4.43</v>
       </c>
       <c r="C49">
-        <v>6.21</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50">
-        <v>2.2799999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B50">
-        <v>6.33</v>
+        <v>3.58</v>
       </c>
       <c r="C50">
-        <v>6.42</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B51">
-        <v>12.35</v>
+        <v>2.25</v>
       </c>
       <c r="C51">
-        <v>6.14</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52">
-        <v>2.33</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B52">
-        <v>12.59</v>
+        <v>4.41</v>
       </c>
       <c r="C52">
-        <v>6.25</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53">
-        <v>2.35</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B53">
-        <v>6.33</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C53">
-        <v>6.33</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54">
-        <v>2.38</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B54">
-        <v>6.46</v>
+        <v>4.08</v>
       </c>
       <c r="C54">
-        <v>6.63</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55">
-        <v>2.4</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B55">
-        <v>12.83</v>
+        <v>2.25</v>
       </c>
       <c r="C55">
-        <v>6.42</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56">
-        <v>2.4300000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B56">
-        <v>6.29</v>
+        <v>4.45</v>
       </c>
       <c r="C56">
-        <v>6.29</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57">
-        <v>2.4500000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B57">
-        <v>6.33</v>
+        <v>2.23</v>
       </c>
       <c r="C57">
-        <v>13.09</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58">
-        <v>2.48</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B58">
-        <v>6.29</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C58">
-        <v>12.67</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59">
-        <v>2.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B59">
-        <v>12.51</v>
+        <v>4.46</v>
       </c>
       <c r="C59">
-        <v>6.21</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60">
-        <v>2.5299999999999998</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B60">
-        <v>12.75</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C60">
-        <v>6.38</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61">
-        <v>2.5499999999999998</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B61">
-        <v>6.37</v>
+        <v>4.43</v>
       </c>
       <c r="C61">
-        <v>12.75</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62">
-        <v>2.58</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="B62">
-        <v>5.28</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C62">
-        <v>5.31</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63">
-        <v>2.6</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="B63">
-        <v>6.42</v>
+        <v>4.13</v>
       </c>
       <c r="C63">
-        <v>6.42</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64">
-        <v>2.63</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="B64">
-        <v>6.29</v>
+        <v>3.33</v>
       </c>
       <c r="C64">
-        <v>12.75</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65">
-        <v>2.65</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="B65">
-        <v>6.21</v>
+        <v>4.41</v>
       </c>
       <c r="C65">
-        <v>6.21</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66">
-        <v>2.68</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="B66">
-        <v>6.25</v>
+        <v>4.41</v>
       </c>
       <c r="C66">
-        <v>12.43</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67">
-        <v>2.7</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B67">
-        <v>6.68</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C67">
-        <v>6.46</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68">
-        <v>2.73</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B68">
-        <v>6.21</v>
+        <v>5.04</v>
       </c>
       <c r="C68">
-        <v>12.43</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69">
-        <v>2.75</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B69">
-        <v>6.25</v>
+        <v>4.46</v>
       </c>
       <c r="C69">
-        <v>6.33</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70">
-        <v>2.78</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B70">
-        <v>6.33</v>
+        <v>4.47</v>
       </c>
       <c r="C70">
-        <v>12.67</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71">
-        <v>2.8</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B71">
-        <v>12.59</v>
+        <v>2.25</v>
       </c>
       <c r="C71">
-        <v>12.59</v>
+        <v>6.72</v>
       </c>
     </row>
   </sheetData>
